--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +552,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.586294333333334</v>
+        <v>0.2203263333333333</v>
       </c>
       <c r="N2">
-        <v>4.758883000000001</v>
+        <v>0.660979</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>33.22385824657912</v>
+        <v>9.41956957322822</v>
       </c>
       <c r="R2">
-        <v>299.0147242192121</v>
+        <v>84.77612615905399</v>
       </c>
       <c r="S2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="T2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>6.981284</v>
       </c>
       <c r="I3">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J3">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +614,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.586294333333334</v>
+        <v>0.2203263333333333</v>
       </c>
       <c r="N3">
-        <v>4.758883000000001</v>
+        <v>0.660979</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.691457082863557</v>
+        <v>0.5127202352262222</v>
       </c>
       <c r="R3">
-        <v>33.22311374577201</v>
+        <v>4.614482117036</v>
       </c>
       <c r="S3">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="T3">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H4">
         <v>15.134454</v>
       </c>
       <c r="I4">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J4">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.586294333333334</v>
+        <v>0.2203263333333333</v>
       </c>
       <c r="N4">
-        <v>4.758883000000001</v>
+        <v>0.660979</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>8.002566206098003</v>
+        <v>1.111506252274</v>
       </c>
       <c r="R4">
-        <v>72.02309585488202</v>
+        <v>10.003556270466</v>
       </c>
       <c r="S4">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="T4">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
     </row>
   </sheetData>
